--- a/Organizacao/Planilhas/Horas de Produção.xlsx
+++ b/Organizacao/Planilhas/Horas de Produção.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Horas de Produção</t>
   </si>
@@ -42,20 +42,17 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FFFF0000"/>
-    </font>
+    <font/>
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -135,16 +132,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -158,7 +156,7 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -167,14 +165,8 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -401,109 +393,122 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>43710.0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>0.15763888888888888</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>0.15625</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>0.16180555555555556</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>0.1597222222222222</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>0.15694444444444444</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>43724.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>0.13055555555555556</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>0.13055555555555556</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>0.13055555555555556</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>0.13055555555555556</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>0.13055555555555556</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>43731.0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>0.1388888888888889</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>0.13541666666666666</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>0.1388888888888889</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>0.13194444444444445</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>43738.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="11">
+        <v>0.15625</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.15486111111111112</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.15625</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>43745.0</v>
       </c>
       <c r="B8" s="14"/>
@@ -513,7 +518,7 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>43752.0</v>
       </c>
       <c r="B9" s="14"/>
@@ -523,7 +528,7 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>43759.0</v>
       </c>
       <c r="B10" s="14"/>
@@ -533,7 +538,7 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>43766.0</v>
       </c>
       <c r="B11" s="14"/>
@@ -543,7 +548,7 @@
       <c r="F11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>43773.0</v>
       </c>
       <c r="B12" s="14"/>
@@ -553,7 +558,7 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>43780.0</v>
       </c>
       <c r="B13" s="14"/>
@@ -563,7 +568,7 @@
       <c r="F13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>43787.0</v>
       </c>
       <c r="B14" s="14"/>
@@ -573,7 +578,7 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>43794.0</v>
       </c>
       <c r="B15" s="14"/>
@@ -583,7 +588,7 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>43801.0</v>
       </c>
       <c r="B16" s="14"/>
@@ -593,14 +598,36 @@
       <c r="F16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>43808.0</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="15">
+        <f t="shared" ref="B18:F18" si="1">sum(B4:B17)</f>
+        <v>0.5833333333</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5756944444</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5861111111</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5736111111</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5756944444</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
